--- a/Data/Processed/Angiosperms/missing_powo_ipni/Alstroemeriaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Alstroemeriaceae.xlsx
@@ -2302,7 +2302,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Onira 5(8): 38. 2000 [29 Dec 2000] </t>
+          <t>Onira 5(8): 38. 2000 [29 Dec 2000]</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Onira 5(8): 39 (-40). 2000 [29 Dec 2000] </t>
+          <t>Onira 5(8): 39 (-40). 2000 [29 Dec 2000]</t>
         </is>
       </c>
       <c r="J36" t="b">
